--- a/reference_data/SUBSTATIONS 2-25102025.xlsx
+++ b/reference_data/SUBSTATIONS 2-25102025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JUVENAL\DATA SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136C97E-E119-4C26-82A6-59A3075F5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC551D5-02CE-47B1-A2E4-F48E84A1FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="806">
   <si>
     <t>No</t>
   </si>
@@ -3198,7 +3198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -3596,6 +3596,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3641,7 +3656,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3756,6 +3771,29 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3780,29 +3818,9 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="36" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4129,8 +4147,8 @@
   </sheetPr>
   <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,50 +4183,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
     </row>
     <row r="2" spans="1:42" ht="165.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -7611,56 +7629,132 @@
       <c r="AP44" s="7"/>
     </row>
     <row r="45" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7"/>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="7"/>
-      <c r="AO45" s="7"/>
-      <c r="AP45" s="7"/>
+      <c r="E45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="O45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="R45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="S45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="T45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="U45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="V45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="W45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="X45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AG45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AH45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AK45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AL45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AM45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AN45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AO45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="AP45" s="48" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="46" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -8092,10 +8186,10 @@
   </sheetPr>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8121,29 +8215,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
     </row>
     <row r="2" spans="1:21" ht="197.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -10046,35 +10140,69 @@
       <c r="U44" s="7"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
+      <c r="E45" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>782</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="60">
+        <v>126</v>
+      </c>
+      <c r="N45" s="60">
+        <v>73</v>
+      </c>
+      <c r="O45" s="60">
+        <v>1.2</v>
+      </c>
+      <c r="P45" s="60">
+        <v>90</v>
+      </c>
+      <c r="Q45" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="R45" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="S45" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -10320,8 +10448,8 @@
   </sheetPr>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10357,41 +10485,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="80"/>
     </row>
     <row r="2" spans="1:33" ht="156.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -11559,7 +11687,7 @@
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
       <c r="AF17" s="62"/>
-      <c r="AG17" s="75"/>
+      <c r="AG17" s="67"/>
     </row>
     <row r="18" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
@@ -11574,83 +11702,83 @@
       <c r="D18" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="70" t="s">
         <v>804</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="79" t="s">
+      <c r="I18" s="72"/>
+      <c r="J18" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82">
+      <c r="K18" s="73"/>
+      <c r="L18" s="74">
         <v>400</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="71">
         <v>50</v>
       </c>
-      <c r="N18" s="82">
+      <c r="N18" s="74">
         <v>230</v>
       </c>
-      <c r="O18" s="82">
+      <c r="O18" s="74">
         <v>17.3</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="71" t="s">
         <v>773</v>
       </c>
-      <c r="Q18" s="79">
+      <c r="Q18" s="71">
         <v>110</v>
       </c>
-      <c r="R18" s="78" t="s">
+      <c r="R18" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="S18" s="82">
+      <c r="S18" s="74">
         <v>110</v>
       </c>
-      <c r="T18" s="82">
+      <c r="T18" s="74">
         <v>123</v>
       </c>
-      <c r="U18" s="83">
+      <c r="U18" s="75">
         <v>0.05</v>
       </c>
-      <c r="V18" s="79" t="s">
+      <c r="V18" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="W18" s="84">
+      <c r="W18" s="76">
         <v>104.4</v>
       </c>
-      <c r="X18" s="82">
+      <c r="X18" s="74">
         <v>128.80000000000001</v>
       </c>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79" t="s">
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="AA18" s="78" t="s">
+      <c r="AA18" s="70" t="s">
         <v>805</v>
       </c>
-      <c r="AB18" s="79" t="s">
+      <c r="AB18" s="71" t="s">
         <v>609</v>
       </c>
-      <c r="AC18" s="82">
+      <c r="AC18" s="74">
         <v>340</v>
       </c>
-      <c r="AD18" s="82" t="s">
+      <c r="AD18" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="AE18" s="82" t="s">
+      <c r="AE18" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="82" t="s">
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="74" t="s">
         <v>404</v>
       </c>
     </row>
@@ -11719,10 +11847,10 @@
       <c r="V19" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="W19" s="76">
+      <c r="W19" s="68">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="X19" s="76">
+      <c r="X19" s="68">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Y19" s="32" t="s">
@@ -11746,10 +11874,10 @@
       <c r="AE19" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" s="77" t="s">
+      <c r="AF19" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="AG19" s="77" t="s">
+      <c r="AG19" s="69" t="s">
         <v>251</v>
       </c>
     </row>
@@ -13125,47 +13253,99 @@
       <c r="AG44" s="18"/>
     </row>
     <row r="45" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="18"/>
+      <c r="E45" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48">
+        <v>3</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" s="48">
+        <v>17.3</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="R45" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="S45" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="T45" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="U45" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="V45" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="W45" s="48">
+        <v>104.4</v>
+      </c>
+      <c r="X45" s="48">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA45" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB45" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC45" s="48">
+        <v>340</v>
+      </c>
+      <c r="AD45" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE45" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="48" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -13505,10 +13685,10 @@
   <dimension ref="A1:AT51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13539,32 +13719,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -15592,172 +15772,172 @@
       <c r="D44" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="48" t="s">
         <v>716</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="60" t="s">
         <v>735</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="60" t="s">
         <v>722</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="60" t="s">
         <v>542</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="60" t="s">
         <v>723</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="60" t="s">
         <v>671</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="60" t="s">
         <v>724</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="60" t="s">
         <v>725</v>
       </c>
-      <c r="N45" s="17" t="s">
+      <c r="N45" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="O45" s="17" t="s">
+      <c r="O45" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="60">
         <v>80</v>
       </c>
-      <c r="Q45" s="17" t="s">
+      <c r="Q45" s="60" t="s">
         <v>727</v>
       </c>
-      <c r="R45" s="17" t="s">
+      <c r="R45" s="60" t="s">
         <v>728</v>
       </c>
-      <c r="S45" s="17" t="s">
+      <c r="S45" s="60" t="s">
         <v>729</v>
       </c>
-      <c r="T45" s="17" t="s">
+      <c r="T45" s="60" t="s">
         <v>730</v>
       </c>
-      <c r="U45" s="52" t="s">
+      <c r="U45" s="85" t="s">
         <v>731</v>
       </c>
-      <c r="V45" s="17" t="s">
+      <c r="V45" s="60" t="s">
         <v>732</v>
       </c>
-      <c r="W45" s="17" t="s">
+      <c r="W45" s="60" t="s">
         <v>733</v>
       </c>
-      <c r="X45" s="17" t="s">
+      <c r="X45" s="60" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="48">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="48" t="s">
         <v>717</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="48" t="s">
         <v>723</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="N46" s="17" t="s">
+      <c r="N46" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="O46" s="17" t="s">
+      <c r="O46" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="48">
         <v>80</v>
       </c>
-      <c r="Q46" s="17" t="s">
+      <c r="Q46" s="48" t="s">
         <v>727</v>
       </c>
-      <c r="R46" s="17" t="s">
+      <c r="R46" s="48" t="s">
         <v>728</v>
       </c>
-      <c r="S46" s="17" t="s">
+      <c r="S46" s="48" t="s">
         <v>729</v>
       </c>
-      <c r="T46" s="17" t="s">
+      <c r="T46" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="U46" s="52" t="s">
+      <c r="U46" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="V46" s="17" t="s">
+      <c r="V46" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="W46" s="17" t="s">
+      <c r="W46" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="X46" s="17" t="s">
+      <c r="X46" s="48" t="s">
         <v>734</v>
       </c>
     </row>
@@ -15987,7 +16167,7 @@
   <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16014,33 +16194,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80"/>
     </row>
     <row r="2" spans="1:33" ht="102.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -17855,37 +18035,77 @@
       <c r="Y44" s="7"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
+      <c r="D45" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="O45" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="S45" s="66"/>
+      <c r="T45" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="U45" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="V45" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X45" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y45" s="48" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="62">
@@ -17973,7 +18193,7 @@
       <c r="R47" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="S47" s="74"/>
+      <c r="S47" s="66"/>
       <c r="T47" s="48" t="s">
         <v>236</v>
       </c>
@@ -18046,7 +18266,7 @@
       <c r="R48" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="S48" s="74"/>
+      <c r="S48" s="66"/>
       <c r="T48" s="48" t="s">
         <v>236</v>
       </c>
@@ -18151,10 +18371,10 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18180,26 +18400,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:18" ht="137.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -19659,95 +19879,125 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="D45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="O45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="R45" s="48" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="48">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="N46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="P46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="R46" s="17" t="s">
+      <c r="E46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="O46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="P46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q46" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="R46" s="48" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="48">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="48" t="s">
         <v>211</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -19797,30 +20047,30 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="48">
         <v>46</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
     </row>
     <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48">
@@ -19928,10 +20178,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19941,7 +20191,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
@@ -19951,26 +20201,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="84"/>
     </row>
     <row r="2" spans="1:19" ht="153" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -21638,32 +21888,56 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="48">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="63" t="s">
         <v>763</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="E45" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="N45" s="48">
+        <v>32</v>
+      </c>
+      <c r="O45" s="48">
+        <v>96</v>
+      </c>
+      <c r="P45" s="48">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="65" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
